--- a/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>291845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282107</v>
+        <v>281875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>300251</v>
+        <v>299145</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9153202867263825</v>
+        <v>0.9153202867263829</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8847771317665195</v>
+        <v>0.8840504903094455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9416826317726567</v>
+        <v>0.938213713630573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>523</v>
@@ -762,19 +762,19 @@
         <v>307982</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>302488</v>
+        <v>302087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311344</v>
+        <v>311165</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9759195050121339</v>
+        <v>0.9759195050121341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9585127555461641</v>
+        <v>0.9572395861721338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9865725015045005</v>
+        <v>0.9860060950318158</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>819</v>
@@ -783,19 +783,19 @@
         <v>599827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>588251</v>
+        <v>589252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>608943</v>
+        <v>608503</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9454639643176753</v>
+        <v>0.9454639643176752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.927217583166337</v>
+        <v>0.9287953216135501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9598324351341816</v>
+        <v>0.9591397781464622</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6352</v>
+        <v>6464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18146</v>
+        <v>18794</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03515661907143764</v>
+        <v>0.03515661907143765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0199215226216119</v>
+        <v>0.02027302537623305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05691318843858144</v>
+        <v>0.0589449433212559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1788</v>
+        <v>1912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9138</v>
+        <v>9902</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.013447424680533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005665212803050906</v>
+        <v>0.006057327329265909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.028957140048227</v>
+        <v>0.03137793193917163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>15453</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9499</v>
+        <v>10191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23041</v>
+        <v>24491</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02435788313064758</v>
+        <v>0.02435788313064757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01497182075110694</v>
+        <v>0.01606359396450934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03631805170796353</v>
+        <v>0.03860337788546056</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>15790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10002</v>
+        <v>10470</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23302</v>
+        <v>23897</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04952309420217964</v>
+        <v>0.04952309420217965</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03137017191189993</v>
+        <v>0.03283658055694558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07308371838424357</v>
+        <v>0.07494720508827132</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -904,19 +904,19 @@
         <v>3356</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6919</v>
+        <v>6770</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01063307030733307</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00456373744912321</v>
+        <v>0.004560253179108091</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02192326847961511</v>
+        <v>0.02145397837165429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -925,19 +925,19 @@
         <v>19146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13058</v>
+        <v>12872</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27475</v>
+        <v>26840</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03017815255167725</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02058219693314155</v>
+        <v>0.02028927887968698</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04330681076097746</v>
+        <v>0.04230598454360104</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>470549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449182</v>
+        <v>448806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486599</v>
+        <v>486928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8889763244052092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8486108912384234</v>
+        <v>0.8479000763979161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9193000951800191</v>
+        <v>0.9199217460289024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>689</v>
@@ -1050,19 +1050,19 @@
         <v>527424</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>519411</v>
+        <v>519509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>533507</v>
+        <v>533288</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9663044062607584</v>
+        <v>0.9663044062607582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9516220410916447</v>
+        <v>0.9518028971088571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9774485543345908</v>
+        <v>0.9770473224837051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1029</v>
@@ -1071,19 +1071,19 @@
         <v>997973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>973466</v>
+        <v>973991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1016501</v>
+        <v>1017905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9282337952358521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9054398613912906</v>
+        <v>0.9059275031403751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9454675696101036</v>
+        <v>0.946772657189199</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>49038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33563</v>
+        <v>33740</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71244</v>
+        <v>71411</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09264342491348362</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06340768136039798</v>
+        <v>0.06374325850828517</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1345973994451974</v>
+        <v>0.1349126686764344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -1121,19 +1121,19 @@
         <v>16355</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10685</v>
+        <v>10731</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24322</v>
+        <v>23965</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02996449204822207</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0195759122517416</v>
+        <v>0.01966112719710124</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04456147688369447</v>
+        <v>0.04390744539166182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -1142,19 +1142,19 @@
         <v>65393</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48494</v>
+        <v>47166</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>90140</v>
+        <v>88825</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06082294883791861</v>
+        <v>0.06082294883791862</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04510487939646072</v>
+        <v>0.04386969869212446</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0838408914169792</v>
+        <v>0.08261769081242905</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>9729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4864</v>
+        <v>4680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17673</v>
+        <v>17020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01838025068130706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00918904301269605</v>
+        <v>0.008841672706623657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03338862340828144</v>
+        <v>0.03215458941659385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1192,19 +1192,19 @@
         <v>2036</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5414</v>
+        <v>5617</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003731101691019693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001007042480311551</v>
+        <v>0.001021217865232511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00991844987988556</v>
+        <v>0.01029169706231499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1213,19 +1213,19 @@
         <v>11765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6515</v>
+        <v>6653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19507</v>
+        <v>19741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01094325592622922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006059388310086058</v>
+        <v>0.006187670243343011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01814344794517394</v>
+        <v>0.01836155536790633</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>276768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>265392</v>
+        <v>265545</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>285423</v>
+        <v>285661</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8791435935144589</v>
+        <v>0.8791435935144588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8430057600745374</v>
+        <v>0.8434911773073528</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9066336966789873</v>
+        <v>0.907390751366201</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>527</v>
@@ -1338,19 +1338,19 @@
         <v>350603</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>345551</v>
+        <v>345169</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>353546</v>
+        <v>353878</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9837866727165651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9696116502961813</v>
+        <v>0.968538925840191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9920439853916616</v>
+        <v>0.9929768217960024</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>832</v>
@@ -1359,19 +1359,19 @@
         <v>627371</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>615272</v>
+        <v>614843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>637068</v>
+        <v>638058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9347052675803581</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9166790321552177</v>
+        <v>0.9160390369464518</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9491517058383689</v>
+        <v>0.9506277182218177</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>16803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10775</v>
+        <v>11173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25416</v>
+        <v>26258</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05337406264804488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0342270390544502</v>
+        <v>0.03549074000422862</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08073142953801422</v>
+        <v>0.08340617495682655</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1409,19 +1409,19 @@
         <v>2780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>700</v>
+        <v>619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7530</v>
+        <v>6967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007800736080772743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001963686647778112</v>
+        <v>0.001736576999847382</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0211276903703252</v>
+        <v>0.01954967067377562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1430,19 +1430,19 @@
         <v>19583</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12979</v>
+        <v>12642</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28687</v>
+        <v>28606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02917628161812083</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01933661418899249</v>
+        <v>0.01883535497747035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04273958033708736</v>
+        <v>0.04261968890502179</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>21245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14984</v>
+        <v>14645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29479</v>
+        <v>29929</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06748234383749634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04759753076896892</v>
+        <v>0.04651921424386595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09363911939706171</v>
+        <v>0.09506706685891508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1480,19 +1480,19 @@
         <v>2998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7176</v>
+        <v>7457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008412591202662276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003107456682601421</v>
+        <v>0.003100452466523946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02013690844640075</v>
+        <v>0.02092464399718479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1501,19 +1501,19 @@
         <v>24243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17464</v>
+        <v>17312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32924</v>
+        <v>32753</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03611845080152105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02601862497178064</v>
+        <v>0.02579272589247806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04905310263140517</v>
+        <v>0.0487985577126717</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>337691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>326878</v>
+        <v>325347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>348181</v>
+        <v>347056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9107540854017688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8815919372417022</v>
+        <v>0.8774614064473494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9390451665300842</v>
+        <v>0.9360114764355489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>587</v>
@@ -1626,19 +1626,19 @@
         <v>413519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406963</v>
+        <v>406917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>417497</v>
+        <v>417672</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9799932075968157</v>
+        <v>0.979993207596816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9644562647685774</v>
+        <v>0.9643474081638199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9894210618738707</v>
+        <v>0.9898352614515671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>838</v>
@@ -1647,19 +1647,19 @@
         <v>751211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>736890</v>
+        <v>737953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>761209</v>
+        <v>761569</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9476086607127567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9295435544915509</v>
+        <v>0.9308848674259456</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9602206287020134</v>
+        <v>0.9606749230763856</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>15105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8489</v>
+        <v>8497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24521</v>
+        <v>24946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04073804731244499</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02289445159079967</v>
+        <v>0.02291713832437573</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06613260573677457</v>
+        <v>0.06727834314692276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1697,19 +1697,19 @@
         <v>6060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2874</v>
+        <v>2774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11062</v>
+        <v>11037</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01436103218169064</v>
+        <v>0.01436103218169065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006811424478308115</v>
+        <v>0.006574483426084484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02621520697102084</v>
+        <v>0.02615591400739675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -1718,19 +1718,19 @@
         <v>21165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13612</v>
+        <v>13614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31850</v>
+        <v>31560</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02669809908957465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01717129653150063</v>
+        <v>0.01717323071951892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04017676732571136</v>
+        <v>0.03981147770388813</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>17986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11373</v>
+        <v>11962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26222</v>
+        <v>27459</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04850786728578621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03067361376687461</v>
+        <v>0.03226088663177817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0707195096654596</v>
+        <v>0.07405809887518261</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9338</v>
+        <v>8949</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.005645760221493591</v>
+        <v>0.005645760221493592</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02213033586687417</v>
+        <v>0.0212080187977011</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -1789,19 +1789,19 @@
         <v>20368</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13692</v>
+        <v>13457</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31415</v>
+        <v>30656</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0256932401976687</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01727225293404974</v>
+        <v>0.01697557486059434</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03962783225568344</v>
+        <v>0.03867090585301838</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>179489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>171259</v>
+        <v>170802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187064</v>
+        <v>186907</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.875828588190119</v>
+        <v>0.8758285881901191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8356715001349285</v>
+        <v>0.8334422511130954</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9127918365072404</v>
+        <v>0.9120264772119008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>467</v>
@@ -1914,19 +1914,19 @@
         <v>215812</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210476</v>
+        <v>210498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>219568</v>
+        <v>219512</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9514561145806595</v>
+        <v>0.9514561145806594</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9279286670154735</v>
+        <v>0.9280297839616803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.968015858063756</v>
+        <v>0.9677698388245023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>709</v>
@@ -1935,19 +1935,19 @@
         <v>395302</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383300</v>
+        <v>384713</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>402833</v>
+        <v>403218</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.915559235045122</v>
+        <v>0.9155592350451223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8877616388628962</v>
+        <v>0.891035257150788</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9330015213412628</v>
+        <v>0.933894005857464</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>8322</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4458</v>
+        <v>4450</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13786</v>
+        <v>13685</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04060936172285711</v>
+        <v>0.0406093617228571</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02175426742114377</v>
+        <v>0.02171303150610149</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0672683814454257</v>
+        <v>0.06677512404961135</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1985,19 +1985,19 @@
         <v>5239</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2729</v>
+        <v>2740</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9981</v>
+        <v>9658</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02309627970819163</v>
+        <v>0.02309627970819162</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01203170826541103</v>
+        <v>0.01207861322320419</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04400498655985314</v>
+        <v>0.04257974407920926</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2006,19 +2006,19 @@
         <v>13561</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9016</v>
+        <v>8861</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20070</v>
+        <v>20498</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03140892756778188</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02088254167979291</v>
+        <v>0.02052397290300944</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04648343355019871</v>
+        <v>0.04747609255006714</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>17125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11229</v>
+        <v>10818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25035</v>
+        <v>25496</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0835620500870238</v>
+        <v>0.08356205008702379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05479135490050318</v>
+        <v>0.0527892768874447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1221587297713144</v>
+        <v>0.1244096063586112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2056,19 +2056,19 @@
         <v>5772</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3290</v>
+        <v>3150</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9640</v>
+        <v>9711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0254476057111489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01450681783659881</v>
+        <v>0.0138882993511606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04250021311121883</v>
+        <v>0.04281114232177141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2077,19 +2077,19 @@
         <v>22897</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16212</v>
+        <v>16010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31881</v>
+        <v>31930</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0530318373870959</v>
+        <v>0.05303183738709591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03754803666329237</v>
+        <v>0.03708107241888797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07383906032743928</v>
+        <v>0.07395368730519117</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>246475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>237737</v>
+        <v>238425</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>252773</v>
+        <v>253572</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9104864645497601</v>
+        <v>0.91048646454976</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8782083860435892</v>
+        <v>0.8807495793077685</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9337525250868154</v>
+        <v>0.9367032857644483</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>451</v>
@@ -2202,19 +2202,19 @@
         <v>258931</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>254803</v>
+        <v>254980</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>261443</v>
+        <v>261480</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9817284883044163</v>
+        <v>0.9817284883044158</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9660796046640094</v>
+        <v>0.9667503171003805</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9912534472107657</v>
+        <v>0.9913940410713952</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>779</v>
@@ -2223,19 +2223,19 @@
         <v>505406</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>495803</v>
+        <v>496519</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>512187</v>
+        <v>512251</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9456438205722337</v>
+        <v>0.9456438205722335</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9276759062639265</v>
+        <v>0.9290154373438468</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9583316053202996</v>
+        <v>0.9584504323436193</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>10247</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6157</v>
+        <v>6075</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15867</v>
+        <v>16649</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03785412612469537</v>
+        <v>0.03785412612469538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02274349647715605</v>
+        <v>0.02244161373787017</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05861379689964349</v>
+        <v>0.061500142015459</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2273,19 +2273,19 @@
         <v>2032</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5137</v>
+        <v>4717</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007704634904122004</v>
+        <v>0.007704634904122001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00224154364377244</v>
+        <v>0.001864618455767977</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01947516097950141</v>
+        <v>0.01788528617322739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2294,19 +2294,19 @@
         <v>12279</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7753</v>
+        <v>7930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18393</v>
+        <v>19705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02297559880508278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01450684624848132</v>
+        <v>0.01483662954765391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03441465505842946</v>
+        <v>0.03686832163263656</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>13985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9143</v>
+        <v>8827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20684</v>
+        <v>19678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05165940932554456</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03377281898095129</v>
+        <v>0.03260867462038667</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07640593948287441</v>
+        <v>0.07268952192533609</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2344,19 +2344,19 @@
         <v>2787</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>866</v>
+        <v>1040</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6229</v>
+        <v>6286</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01056687679146186</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003283044596031162</v>
+        <v>0.00394232494731845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02361712982018685</v>
+        <v>0.02383384589234685</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2365,19 +2365,19 @@
         <v>16772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12107</v>
+        <v>11777</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24273</v>
+        <v>24482</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03138058062268358</v>
+        <v>0.03138058062268357</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02265276644664978</v>
+        <v>0.02203498045382312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0454153461902458</v>
+        <v>0.04580717214605218</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>667646</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>652610</v>
+        <v>653728</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>680533</v>
+        <v>680197</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9317490485589325</v>
+        <v>0.9317490485589326</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9107651905144581</v>
+        <v>0.9123253186622873</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9497335854767774</v>
+        <v>0.9492657133148199</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>923</v>
@@ -2490,19 +2490,19 @@
         <v>744390</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>733028</v>
+        <v>732785</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>751574</v>
+        <v>751943</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9654972789195386</v>
+        <v>0.9654972789195387</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9507607496240994</v>
+        <v>0.9504450412082993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9748151426176034</v>
+        <v>0.975294494876451</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1470</v>
@@ -2511,19 +2511,19 @@
         <v>1412035</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1394153</v>
+        <v>1394125</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1426454</v>
+        <v>1427587</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9492407101228053</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9372191270862616</v>
+        <v>0.937200667580032</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9589336613956108</v>
+        <v>0.9596951368844002</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>29174</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19834</v>
+        <v>20438</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42787</v>
+        <v>43313</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04071413982893375</v>
+        <v>0.04071413982893376</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02768011729218805</v>
+        <v>0.02852290772620934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05971269337372039</v>
+        <v>0.06044633252107438</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -2561,19 +2561,19 @@
         <v>13051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7692</v>
+        <v>8212</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20018</v>
+        <v>19838</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01692791022533057</v>
+        <v>0.01692791022533058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009977038600661327</v>
+        <v>0.01065089213428436</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0259638497937447</v>
+        <v>0.02573068991248623</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2582,19 +2582,19 @@
         <v>42225</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31318</v>
+        <v>31307</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56889</v>
+        <v>57002</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02838576961037377</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02105370012547988</v>
+        <v>0.02104605010215747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03824359754523593</v>
+        <v>0.03831991061627291</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>19732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12108</v>
+        <v>11951</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28895</v>
+        <v>29080</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02753681161213369</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01689703823956496</v>
+        <v>0.01667865471926227</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04032475415853581</v>
+        <v>0.04058392045373362</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -2632,19 +2632,19 @@
         <v>13550</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8200</v>
+        <v>8085</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23491</v>
+        <v>24088</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.01757481085513073</v>
+        <v>0.01757481085513074</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01063534022886092</v>
+        <v>0.01048662856516786</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03046807837913654</v>
+        <v>0.03124227428903173</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -2653,19 +2653,19 @@
         <v>33282</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23798</v>
+        <v>23358</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>45203</v>
+        <v>46866</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02237352026682089</v>
+        <v>0.0223735202668209</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01599832937607132</v>
+        <v>0.01570236742707266</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03038764961070674</v>
+        <v>0.03150596975793044</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>601621</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>574780</v>
+        <v>575323</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>625441</v>
+        <v>625566</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7549235308748025</v>
+        <v>0.7549235308748024</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7212426216045493</v>
+        <v>0.721924271719777</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7848124673698228</v>
+        <v>0.7849695701840737</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>996</v>
@@ -2778,19 +2778,19 @@
         <v>780075</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>766672</v>
+        <v>765705</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>791412</v>
+        <v>790965</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.939026204512567</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9228920642433724</v>
+        <v>0.921728278357117</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9526726650470313</v>
+        <v>0.9521352982633707</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1563</v>
@@ -2799,19 +2799,19 @@
         <v>1381697</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1351425</v>
+        <v>1351443</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1410895</v>
+        <v>1408613</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8488863012809408</v>
+        <v>0.8488863012809409</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8302874114684239</v>
+        <v>0.8302987854580174</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.866824390615736</v>
+        <v>0.8654227094137082</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>26863</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>16507</v>
+        <v>16886</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>40854</v>
+        <v>40719</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03370757342151182</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02071328069837218</v>
+        <v>0.02118874000551188</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0512636569298607</v>
+        <v>0.05109473889404074</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -2849,19 +2849,19 @@
         <v>19596</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>13461</v>
+        <v>12814</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>28458</v>
+        <v>27935</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02358893422430048</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01620414100049865</v>
+        <v>0.01542467161011502</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03425704040385152</v>
+        <v>0.03362737259512402</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>51</v>
@@ -2870,19 +2870,19 @@
         <v>46459</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>35066</v>
+        <v>34609</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>61806</v>
+        <v>61488</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02854319773416662</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02154382183820412</v>
+        <v>0.02126277021573229</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03797210376055388</v>
+        <v>0.0377769177831629</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>168446</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>146595</v>
+        <v>145592</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>192642</v>
+        <v>194507</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2113688957036858</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1839496394251826</v>
+        <v>0.1826907575651853</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2417297325280281</v>
+        <v>0.2440700802679296</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -2920,19 +2920,19 @@
         <v>31057</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>22066</v>
+        <v>21841</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>41273</v>
+        <v>42590</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03738486126313251</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02656268587326354</v>
+        <v>0.02629176222808129</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04968315354879314</v>
+        <v>0.05126829328512109</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>208</v>
@@ -2941,19 +2941,19 @@
         <v>199503</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>171817</v>
+        <v>173729</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>226864</v>
+        <v>228257</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1225705009848927</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1055610285690291</v>
+        <v>0.1067356139527943</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1393803509316625</v>
+        <v>0.1402364976969026</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>3072085</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3026693</v>
+        <v>3034612</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3111405</v>
+        <v>3110837</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8720372345984299</v>
+        <v>0.87203723459843</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8591522203833669</v>
+        <v>0.8614001082694799</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8831985419258347</v>
+        <v>0.8830373885104258</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5163</v>
@@ -3066,19 +3066,19 @@
         <v>3598737</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3579153</v>
+        <v>3578958</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3616697</v>
+        <v>3617078</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.9642835079762527</v>
+        <v>0.9642835079762528</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9590361025761077</v>
+        <v>0.9589836063463009</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9690958837027084</v>
+        <v>0.9691979104183844</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8039</v>
@@ -3087,19 +3087,19 @@
         <v>6670822</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6627363</v>
+        <v>6622110</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6718176</v>
+        <v>6715835</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.9194900392254699</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.913499807592221</v>
+        <v>0.9127757524497939</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.926017161805702</v>
+        <v>0.9256944846270765</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>166761</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>140308</v>
+        <v>141724</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198855</v>
+        <v>197389</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04733653161148014</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03982757104770126</v>
+        <v>0.04022967954975785</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05644666748098013</v>
+        <v>0.05603046768366712</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>105</v>
@@ -3137,19 +3137,19 @@
         <v>69357</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57095</v>
+        <v>57251</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>83483</v>
+        <v>83897</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01858419699421892</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01529866731759976</v>
+        <v>0.01534049848325184</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0223692584130101</v>
+        <v>0.02248015952428194</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>270</v>
@@ -3158,19 +3158,19 @@
         <v>236118</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>204350</v>
+        <v>205146</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>269623</v>
+        <v>270106</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03254591875305125</v>
+        <v>0.03254591875305126</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02816711247215103</v>
+        <v>0.02827685339289562</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03716412057065639</v>
+        <v>0.03723077176869122</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>284037</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>255847</v>
+        <v>254642</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>320325</v>
+        <v>316825</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08062623379008986</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07262437911128651</v>
+        <v>0.07228227400994944</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09092703711063443</v>
+        <v>0.08993354750321381</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>91</v>
@@ -3208,19 +3208,19 @@
         <v>63938</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>51017</v>
+        <v>51593</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>77870</v>
+        <v>79995</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01713229502952839</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0136699064586027</v>
+        <v>0.01382427982419036</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02086527701192705</v>
+        <v>0.02143459895002154</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>416</v>
@@ -3229,19 +3229,19 @@
         <v>347975</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>314193</v>
+        <v>310782</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>384475</v>
+        <v>384907</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04796404202147892</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0433075932847836</v>
+        <v>0.0428374581684962</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.05299507070980348</v>
+        <v>0.05305469585556552</v>
       </c>
     </row>
     <row r="39">
